--- a/inputdata/NADC_simple.xlsx
+++ b/inputdata/NADC_simple.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\el\NADC_prioritizr\inputdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27430"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22590" windowHeight="10725"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="22600" windowHeight="10720"/>
   </bookViews>
   <sheets>
     <sheet name="NADC_simple" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -60,9 +60,6 @@
     <t>Sum selected</t>
   </si>
   <si>
-    <t>Missing target</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
@@ -86,11 +83,14 @@
   <si>
     <t>Data values</t>
   </si>
+  <si>
+    <t>Missing target?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,12 +431,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -555,16 +549,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,24 +612,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -681,7 +675,39 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -737,7 +763,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -772,7 +798,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -949,7 +975,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -960,285 +986,285 @@
   <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="9" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="10">
+      <c r="H2" s="12"/>
+      <c r="I2" s="7">
         <f>COUNT(A12:A106)</f>
         <v>95</v>
       </c>
-      <c r="J2" s="10">
-        <f>SUM(B12:B106)</f>
+      <c r="J2" s="7">
+        <f t="shared" ref="J2:P2" si="0">SUM(B12:B106)</f>
         <v>30265183.890014648</v>
       </c>
-      <c r="K2" s="10">
-        <f>SUM(C12:C106)</f>
+      <c r="K2" s="7">
+        <f t="shared" si="0"/>
         <v>902625</v>
       </c>
-      <c r="L2" s="10">
-        <f>SUM(D12:D106)</f>
+      <c r="L2" s="7">
+        <f t="shared" si="0"/>
         <v>838826</v>
       </c>
-      <c r="M2" s="10">
-        <f>SUM(E12:E106)</f>
+      <c r="M2" s="7">
+        <f t="shared" si="0"/>
         <v>342960</v>
       </c>
-      <c r="N2" s="10">
-        <f>SUM(F12:F106)</f>
+      <c r="N2" s="7">
+        <f t="shared" si="0"/>
         <v>269285</v>
       </c>
-      <c r="O2" s="10">
-        <f>SUM(G12:G106)</f>
+      <c r="O2" s="7">
+        <f t="shared" si="0"/>
         <v>293904</v>
       </c>
-      <c r="P2" s="10">
-        <f>SUM(H12:H106)</f>
+      <c r="P2" s="7">
+        <f t="shared" si="0"/>
         <v>437880</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="11">
+      <c r="H3" s="12"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8">
         <f>0.17*K2</f>
         <v>153446.25</v>
       </c>
-      <c r="L3" s="11">
-        <f t="shared" ref="L3:P3" si="0">0.17*L2</f>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:P3" si="1">0.17*L2</f>
         <v>142600.42000000001</v>
       </c>
-      <c r="M3" s="11">
-        <f t="shared" si="0"/>
+      <c r="M3" s="8">
+        <f t="shared" si="1"/>
         <v>58303.200000000004</v>
       </c>
-      <c r="N3" s="11">
-        <f t="shared" si="0"/>
+      <c r="N3" s="8">
+        <f t="shared" si="1"/>
         <v>45778.450000000004</v>
       </c>
-      <c r="O3" s="11">
-        <f t="shared" si="0"/>
+      <c r="O3" s="8">
+        <f t="shared" si="1"/>
         <v>49963.68</v>
       </c>
-      <c r="P3" s="11">
-        <f t="shared" si="0"/>
+      <c r="P3" s="8">
+        <f t="shared" si="1"/>
         <v>74439.600000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="10">
-        <f>SUM(I12:I106)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <f>SUM(J12:J106)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <f>SUM(K12:K106)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <f>SUM(L12:L106)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <f>SUM(M12:M106)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <f>SUM(N12:N106)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
-        <f>SUM(O12:O106)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
-        <f>SUM(P12:P106)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H4" s="12"/>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:P4" si="2">SUM(I12:I106)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="11">
+        <v>17</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8">
         <f>K3-K4</f>
         <v>153446.25</v>
       </c>
-      <c r="L5" s="11">
-        <f t="shared" ref="L5:P5" si="1">L3-L4</f>
+      <c r="L5" s="8">
+        <f t="shared" ref="L5:P5" si="3">L3-L4</f>
         <v>142600.42000000001</v>
       </c>
-      <c r="M5" s="11">
-        <f t="shared" si="1"/>
+      <c r="M5" s="8">
+        <f t="shared" si="3"/>
         <v>58303.200000000004</v>
       </c>
-      <c r="N5" s="11">
-        <f t="shared" si="1"/>
+      <c r="N5" s="8">
+        <f t="shared" si="3"/>
         <v>45778.450000000004</v>
       </c>
-      <c r="O5" s="11">
-        <f t="shared" si="1"/>
+      <c r="O5" s="8">
+        <f t="shared" si="3"/>
         <v>49963.68</v>
       </c>
-      <c r="P5" s="11">
-        <f t="shared" si="1"/>
+      <c r="P5" s="8">
+        <f t="shared" si="3"/>
         <v>74439.600000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1263,7 +1289,7 @@
       <c r="H12">
         <v>2400</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="5">
         <v>0</v>
       </c>
       <c r="J12">
@@ -1271,31 +1297,31 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:P12" si="2">$I12*C12</f>
+        <f t="shared" ref="K12:P12" si="4">$I12*C12</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1320,39 +1346,39 @@
       <c r="H13">
         <v>17850</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="5">
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:J76" si="3">$I13*B13</f>
+        <f t="shared" ref="J13:J76" si="5">$I13*B13</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K76" si="4">$I13*C13</f>
+        <f t="shared" ref="K13:K76" si="6">$I13*C13</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L76" si="5">$I13*D13</f>
+        <f t="shared" ref="L13:L76" si="7">$I13*D13</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M76" si="6">$I13*E13</f>
+        <f t="shared" ref="M13:M76" si="8">$I13*E13</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:N76" si="7">$I13*F13</f>
+        <f t="shared" ref="N13:N76" si="9">$I13*F13</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O76" si="8">$I13*G13</f>
+        <f t="shared" ref="O13:O76" si="10">$I13*G13</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:P76" si="9">$I13*H13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P13:P76" si="11">$I13*H13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1377,39 +1403,39 @@
       <c r="H14">
         <v>13090</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="5">
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1434,39 +1460,39 @@
       <c r="H15">
         <v>570</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="5">
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1491,39 +1517,39 @@
       <c r="H16">
         <v>850</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="5">
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1548,39 +1574,39 @@
       <c r="H17">
         <v>17880</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="5">
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1605,39 +1631,39 @@
       <c r="H18">
         <v>15550</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="5">
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1662,39 +1688,39 @@
       <c r="H19">
         <v>4100</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="5">
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>24</v>
       </c>
@@ -1719,39 +1745,39 @@
       <c r="H20">
         <v>130</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="5">
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>25</v>
       </c>
@@ -1776,39 +1802,39 @@
       <c r="H21">
         <v>7960</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="5">
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>26</v>
       </c>
@@ -1833,39 +1859,39 @@
       <c r="H22">
         <v>12270</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="5">
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>27</v>
       </c>
@@ -1890,39 +1916,39 @@
       <c r="H23">
         <v>12150</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="5">
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>28</v>
       </c>
@@ -1947,39 +1973,39 @@
       <c r="H24">
         <v>8070</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="5">
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>29</v>
       </c>
@@ -2004,39 +2030,39 @@
       <c r="H25">
         <v>3010</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="5">
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>35</v>
       </c>
@@ -2061,39 +2087,39 @@
       <c r="H26">
         <v>2610</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="5">
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>36</v>
       </c>
@@ -2118,39 +2144,39 @@
       <c r="H27">
         <v>16050</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="5">
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>37</v>
       </c>
@@ -2175,39 +2201,39 @@
       <c r="H28">
         <v>9860</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="5">
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>38</v>
       </c>
@@ -2232,39 +2258,39 @@
       <c r="H29">
         <v>7590</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="5">
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>39</v>
       </c>
@@ -2289,39 +2315,39 @@
       <c r="H30">
         <v>5790</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="5">
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>40</v>
       </c>
@@ -2346,39 +2372,39 @@
       <c r="H31">
         <v>4120</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="5">
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>41</v>
       </c>
@@ -2403,39 +2429,39 @@
       <c r="H32">
         <v>3060</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="5">
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>42</v>
       </c>
@@ -2460,39 +2486,39 @@
       <c r="H33">
         <v>50</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="5">
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>46</v>
       </c>
@@ -2517,39 +2543,39 @@
       <c r="H34">
         <v>10</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="5">
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>47</v>
       </c>
@@ -2574,39 +2600,39 @@
       <c r="H35">
         <v>17350</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="5">
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>48</v>
       </c>
@@ -2631,39 +2657,39 @@
       <c r="H36">
         <v>6490</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="5">
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>49</v>
       </c>
@@ -2688,39 +2714,39 @@
       <c r="H37">
         <v>5100</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="5">
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>50</v>
       </c>
@@ -2745,39 +2771,39 @@
       <c r="H38">
         <v>4080</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="5">
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>51</v>
       </c>
@@ -2802,39 +2828,39 @@
       <c r="H39">
         <v>3880</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="5">
         <v>0</v>
       </c>
       <c r="J39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>52</v>
       </c>
@@ -2859,39 +2885,39 @@
       <c r="H40">
         <v>2850</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="5">
         <v>0</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>53</v>
       </c>
@@ -2916,39 +2942,39 @@
       <c r="H41">
         <v>3840</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="5">
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>54</v>
       </c>
@@ -2973,39 +2999,39 @@
       <c r="H42">
         <v>2930</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="5">
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>55</v>
       </c>
@@ -3030,39 +3056,39 @@
       <c r="H43">
         <v>830</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="5">
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>57</v>
       </c>
@@ -3087,39 +3113,39 @@
       <c r="H44">
         <v>10</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="5">
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>58</v>
       </c>
@@ -3144,39 +3170,39 @@
       <c r="H45">
         <v>5670</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="5">
         <v>0</v>
       </c>
       <c r="J45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>59</v>
       </c>
@@ -3201,39 +3227,39 @@
       <c r="H46">
         <v>6210</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="5">
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P46">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>60</v>
       </c>
@@ -3258,39 +3284,39 @@
       <c r="H47">
         <v>1860</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="5">
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>61</v>
       </c>
@@ -3315,39 +3341,39 @@
       <c r="H48">
         <v>4500</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="5">
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>62</v>
       </c>
@@ -3372,39 +3398,39 @@
       <c r="H49">
         <v>6010</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="5">
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>63</v>
       </c>
@@ -3429,39 +3455,39 @@
       <c r="H50">
         <v>6120</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="5">
         <v>0</v>
       </c>
       <c r="J50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>64</v>
       </c>
@@ -3486,39 +3512,39 @@
       <c r="H51">
         <v>5060</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="5">
         <v>0</v>
       </c>
       <c r="J51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>65</v>
       </c>
@@ -3543,39 +3569,39 @@
       <c r="H52">
         <v>5090</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="5">
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P52">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>66</v>
       </c>
@@ -3600,39 +3626,39 @@
       <c r="H53">
         <v>4070</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="5">
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>68</v>
       </c>
@@ -3657,39 +3683,39 @@
       <c r="H54">
         <v>260</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="5">
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>69</v>
       </c>
@@ -3714,39 +3740,39 @@
       <c r="H55">
         <v>4370</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="5">
         <v>0</v>
       </c>
       <c r="J55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>70</v>
       </c>
@@ -3771,39 +3797,39 @@
       <c r="H56">
         <v>5200</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="5">
         <v>0</v>
       </c>
       <c r="J56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P56">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>71</v>
       </c>
@@ -3828,39 +3854,39 @@
       <c r="H57">
         <v>1960</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="5">
         <v>0</v>
       </c>
       <c r="J57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>72</v>
       </c>
@@ -3885,39 +3911,39 @@
       <c r="H58">
         <v>450</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="5">
         <v>0</v>
       </c>
       <c r="J58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>73</v>
       </c>
@@ -3942,39 +3968,39 @@
       <c r="H59">
         <v>3270</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="5">
         <v>0</v>
       </c>
       <c r="J59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P59">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>74</v>
       </c>
@@ -3999,39 +4025,39 @@
       <c r="H60">
         <v>7950</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="5">
         <v>0</v>
       </c>
       <c r="J60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P60">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>75</v>
       </c>
@@ -4056,39 +4082,39 @@
       <c r="H61">
         <v>7310</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="5">
         <v>0</v>
       </c>
       <c r="J61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P61">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>76</v>
       </c>
@@ -4113,39 +4139,39 @@
       <c r="H62">
         <v>3750</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="5">
         <v>0</v>
       </c>
       <c r="J62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P62">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>77</v>
       </c>
@@ -4170,39 +4196,39 @@
       <c r="H63">
         <v>600</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="5">
         <v>0</v>
       </c>
       <c r="J63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>78</v>
       </c>
@@ -4227,39 +4253,39 @@
       <c r="H64">
         <v>400</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="5">
         <v>0</v>
       </c>
       <c r="J64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>79</v>
       </c>
@@ -4284,39 +4310,39 @@
       <c r="H65">
         <v>11170</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="5">
         <v>0</v>
       </c>
       <c r="J65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P65">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>80</v>
       </c>
@@ -4341,39 +4367,39 @@
       <c r="H66">
         <v>7460</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="5">
         <v>0</v>
       </c>
       <c r="J66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P66">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>81</v>
       </c>
@@ -4398,39 +4424,39 @@
       <c r="H67">
         <v>4870</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="5">
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P67">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>82</v>
       </c>
@@ -4455,39 +4481,39 @@
       <c r="H68">
         <v>3920</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="5">
         <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>83</v>
       </c>
@@ -4512,39 +4538,39 @@
       <c r="H69">
         <v>1600</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="5">
         <v>0</v>
       </c>
       <c r="J69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P69">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>84</v>
       </c>
@@ -4569,39 +4595,39 @@
       <c r="H70">
         <v>120</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="5">
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P70">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>85</v>
       </c>
@@ -4626,39 +4652,39 @@
       <c r="H71">
         <v>3290</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="5">
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>86</v>
       </c>
@@ -4683,39 +4709,39 @@
       <c r="H72">
         <v>7800</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="5">
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P72">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>87</v>
       </c>
@@ -4740,39 +4766,39 @@
       <c r="H73">
         <v>2990</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="5">
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>89</v>
       </c>
@@ -4797,39 +4823,39 @@
       <c r="H74">
         <v>3650</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="5">
         <v>0</v>
       </c>
       <c r="J74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P74">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>90</v>
       </c>
@@ -4854,39 +4880,39 @@
       <c r="H75">
         <v>17520</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="5">
         <v>0</v>
       </c>
       <c r="J75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P75">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>91</v>
       </c>
@@ -4911,39 +4937,39 @@
       <c r="H76">
         <v>11400</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="5">
         <v>0</v>
       </c>
       <c r="J76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P76">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>92</v>
       </c>
@@ -4968,39 +4994,39 @@
       <c r="H77">
         <v>6600</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="5">
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" ref="J77:J106" si="10">$I77*B77</f>
+        <f t="shared" ref="J77:J106" si="12">$I77*B77</f>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" ref="K77:K106" si="11">$I77*C77</f>
+        <f t="shared" ref="K77:K106" si="13">$I77*C77</f>
         <v>0</v>
       </c>
       <c r="L77">
-        <f t="shared" ref="L77:L106" si="12">$I77*D77</f>
+        <f t="shared" ref="L77:L106" si="14">$I77*D77</f>
         <v>0</v>
       </c>
       <c r="M77">
-        <f t="shared" ref="M77:M106" si="13">$I77*E77</f>
+        <f t="shared" ref="M77:M106" si="15">$I77*E77</f>
         <v>0</v>
       </c>
       <c r="N77">
-        <f t="shared" ref="N77:N106" si="14">$I77*F77</f>
+        <f t="shared" ref="N77:N106" si="16">$I77*F77</f>
         <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" ref="O77:O106" si="15">$I77*G77</f>
+        <f t="shared" ref="O77:O106" si="17">$I77*G77</f>
         <v>0</v>
       </c>
       <c r="P77">
-        <f t="shared" ref="P77:P106" si="16">$I77*H77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P77:P106" si="18">$I77*H77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>93</v>
       </c>
@@ -5025,39 +5051,39 @@
       <c r="H78">
         <v>1880</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I78" s="5">
         <v>0</v>
       </c>
       <c r="J78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P78">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>94</v>
       </c>
@@ -5082,39 +5108,39 @@
       <c r="H79">
         <v>1980</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I79" s="5">
         <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P79">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>95</v>
       </c>
@@ -5139,39 +5165,39 @@
       <c r="H80">
         <v>1330</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="5">
         <v>0</v>
       </c>
       <c r="J80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P80">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>96</v>
       </c>
@@ -5196,39 +5222,39 @@
       <c r="H81">
         <v>2080</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I81" s="5">
         <v>0</v>
       </c>
       <c r="J81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>97</v>
       </c>
@@ -5253,39 +5279,39 @@
       <c r="H82">
         <v>2010</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="5">
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83">
         <v>100</v>
       </c>
@@ -5310,39 +5336,39 @@
       <c r="H83">
         <v>2340</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I83" s="5">
         <v>0</v>
       </c>
       <c r="J83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P83">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84">
         <v>101</v>
       </c>
@@ -5367,39 +5393,39 @@
       <c r="H84">
         <v>15550</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I84" s="5">
         <v>0</v>
       </c>
       <c r="J84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P84">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>102</v>
       </c>
@@ -5424,39 +5450,39 @@
       <c r="H85">
         <v>10140</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I85" s="5">
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P85">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>103</v>
       </c>
@@ -5481,39 +5507,39 @@
       <c r="H86">
         <v>1270</v>
       </c>
-      <c r="I86" s="8">
+      <c r="I86" s="5">
         <v>0</v>
       </c>
       <c r="J86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P86">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87">
         <v>104</v>
       </c>
@@ -5538,39 +5564,39 @@
       <c r="H87">
         <v>900</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I87" s="5">
         <v>0</v>
       </c>
       <c r="J87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P87">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88">
         <v>105</v>
       </c>
@@ -5595,39 +5621,39 @@
       <c r="H88">
         <v>1110</v>
       </c>
-      <c r="I88" s="8">
+      <c r="I88" s="5">
         <v>0</v>
       </c>
       <c r="J88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P88">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>106</v>
       </c>
@@ -5652,39 +5678,39 @@
       <c r="H89">
         <v>1800</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I89" s="5">
         <v>0</v>
       </c>
       <c r="J89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P89">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>107</v>
       </c>
@@ -5709,39 +5735,39 @@
       <c r="H90">
         <v>1970</v>
       </c>
-      <c r="I90" s="8">
+      <c r="I90" s="5">
         <v>0</v>
       </c>
       <c r="J90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P90">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>108</v>
       </c>
@@ -5766,39 +5792,39 @@
       <c r="H91">
         <v>670</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I91" s="5">
         <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P91">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92">
         <v>111</v>
       </c>
@@ -5823,39 +5849,39 @@
       <c r="H92">
         <v>290</v>
       </c>
-      <c r="I92" s="8">
+      <c r="I92" s="5">
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P92">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>112</v>
       </c>
@@ -5880,39 +5906,39 @@
       <c r="H93">
         <v>3940</v>
       </c>
-      <c r="I93" s="8">
+      <c r="I93" s="5">
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P93">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>113</v>
       </c>
@@ -5937,39 +5963,39 @@
       <c r="H94">
         <v>7080</v>
       </c>
-      <c r="I94" s="8">
+      <c r="I94" s="5">
         <v>0</v>
       </c>
       <c r="J94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P94">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>114</v>
       </c>
@@ -5994,39 +6020,39 @@
       <c r="H95">
         <v>1130</v>
       </c>
-      <c r="I95" s="8">
+      <c r="I95" s="5">
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P95">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96">
         <v>115</v>
       </c>
@@ -6051,39 +6077,39 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" s="8">
+      <c r="I96" s="5">
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P96">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97">
         <v>116</v>
       </c>
@@ -6108,39 +6134,39 @@
       <c r="H97">
         <v>870</v>
       </c>
-      <c r="I97" s="8">
+      <c r="I97" s="5">
         <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P97">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>117</v>
       </c>
@@ -6165,39 +6191,39 @@
       <c r="H98">
         <v>2520</v>
       </c>
-      <c r="I98" s="8">
+      <c r="I98" s="5">
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P98">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>118</v>
       </c>
@@ -6222,39 +6248,39 @@
       <c r="H99">
         <v>1820</v>
       </c>
-      <c r="I99" s="8">
+      <c r="I99" s="5">
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P99">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>119</v>
       </c>
@@ -6279,39 +6305,39 @@
       <c r="H100">
         <v>10</v>
       </c>
-      <c r="I100" s="8">
+      <c r="I100" s="5">
         <v>0</v>
       </c>
       <c r="J100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P100">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>122</v>
       </c>
@@ -6336,39 +6362,39 @@
       <c r="H101">
         <v>140</v>
       </c>
-      <c r="I101" s="8">
+      <c r="I101" s="5">
         <v>0</v>
       </c>
       <c r="J101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P101">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>123</v>
       </c>
@@ -6393,39 +6419,39 @@
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102" s="8">
+      <c r="I102" s="5">
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P102">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>124</v>
       </c>
@@ -6450,39 +6476,39 @@
       <c r="H103">
         <v>70</v>
       </c>
-      <c r="I103" s="8">
+      <c r="I103" s="5">
         <v>0</v>
       </c>
       <c r="J103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P103">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>125</v>
       </c>
@@ -6507,39 +6533,39 @@
       <c r="H104">
         <v>100</v>
       </c>
-      <c r="I104" s="8">
+      <c r="I104" s="5">
         <v>0</v>
       </c>
       <c r="J104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P104">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>126</v>
       </c>
@@ -6564,39 +6590,39 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105" s="8">
+      <c r="I105" s="5">
         <v>0</v>
       </c>
       <c r="J105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P105">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>127</v>
       </c>
@@ -6621,35 +6647,35 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" s="8">
+      <c r="I106" s="5">
         <v>0</v>
       </c>
       <c r="J106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6662,7 +6688,20 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
   </mergeCells>
+  <conditionalFormatting sqref="K5:P5">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>